--- a/biology/Zoologie/Colaspidea/Colaspidea.xlsx
+++ b/biology/Zoologie/Colaspidea/Colaspidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colaspidea est un genre de coléoptères de la famille des Chrysomelidae et de la sous-famille des Eumolpinae. Les espèces du genre se rencontrent en Amérique du Nord (Californie et Sud-Ouest des États-Unis) ainsi que sur le pourtour méditerranéen.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Colaspideaa été créé en 1833 par l'explorateur et naturaliste français Francis de Laporte de Castelnau (1810-1880).
-Colaspidea a pour synonymes[1] :
+Colaspidea a pour synonymes :
 Dia Chevrolat, 1837
 Dia Dejean, 1835
 Plestya Gistl, 1848
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 novembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 novembre 2022) :
 Colaspidea algarvensis  Zoia, 2014
 Colaspidea arachnoides  Duvivier, 1891
 Colaspidea confinis  Zoia, 2014
